--- a/IECD_Correspondences/EXIOBASEv3_163Products_To_163Industries.xlsx
+++ b/IECD_Correspondences/EXIOBASEv3_163Products_To_163Industries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="2" r:id="rId1"/>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,6 +1559,9 @@
       <c r="A2" t="s">
         <v>208</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1844,7 +1847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
